--- a/StructureDefinition-ext-R5-SubstanceNucleicAcid.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceNucleicAcid.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-SubstanceNucleicAcid.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceNucleicAcid.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="324">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -385,6 +385,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.sequenceType</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -432,6 +435,9 @@
     <t>Extension.extension:numberOfSubunits.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.numberOfSubunits</t>
+  </si>
+  <si>
     <t>Extension.extension:numberOfSubunits.value[x]</t>
   </si>
   <si>
@@ -463,6 +469,9 @@
     <t>Extension.extension:areaOfHybridisation.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.areaOfHybridisation</t>
+  </si>
+  <si>
     <t>Extension.extension:areaOfHybridisation.value[x]</t>
   </si>
   <si>
@@ -490,6 +499,9 @@
     <t>Extension.extension:oligoNucleotideType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.oligoNucleotideType</t>
+  </si>
+  <si>
     <t>Extension.extension:oligoNucleotideType.value[x]</t>
   </si>
   <si>
@@ -544,6 +556,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.subunit</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:subunit.value[x]</t>
   </si>
   <si>
@@ -574,6 +589,9 @@
     <t>Extension.extension:subunit.extension:sequence.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sequence</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:sequence.value[x]</t>
   </si>
   <si>
@@ -601,6 +619,9 @@
     <t>Extension.extension:subunit.extension:length.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.length</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:length.value[x]</t>
   </si>
   <si>
@@ -620,6 +641,9 @@
   </si>
   <si>
     <t>Extension.extension:subunit.extension:sequenceAttachment.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sequenceAttachment</t>
   </si>
   <si>
     <t>Extension.extension:subunit.extension:sequenceAttachment.value[x]</t>
@@ -653,6 +677,9 @@
     <t>Extension.extension:subunit.extension:fivePrime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.fivePrime</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:fivePrime.value[x]</t>
   </si>
   <si>
@@ -680,6 +707,9 @@
     <t>Extension.extension:subunit.extension:threePrime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.threePrime</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:threePrime.value[x]</t>
   </si>
   <si>
@@ -737,6 +767,9 @@
     <t>Extension.extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage.connectivity</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:linkage.extension:connectivity.value[x]</t>
   </si>
   <si>
@@ -765,6 +798,9 @@
   </si>
   <si>
     <t>Extension.extension:subunit.extension:linkage.extension:identifier.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage.identifier</t>
   </si>
   <si>
     <t>Extension.extension:subunit.extension:linkage.extension:identifier.value[x]</t>
@@ -798,6 +834,9 @@
     <t>Extension.extension:subunit.extension:linkage.extension:name.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage.name</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:linkage.extension:name.value[x]</t>
   </si>
   <si>
@@ -823,6 +862,9 @@
   </si>
   <si>
     <t>Extension.extension:subunit.extension:linkage.extension:residueSite.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage.residueSite</t>
   </si>
   <si>
     <t>Extension.extension:subunit.extension:linkage.extension:residueSite.value[x]</t>
@@ -889,6 +931,9 @@
     <t>Extension.extension:subunit.extension:sugar.extension:identifier.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar.identifier</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:sugar.extension:identifier.value[x]</t>
   </si>
   <si>
@@ -913,6 +958,9 @@
     <t>Extension.extension:subunit.extension:sugar.extension:name.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar.name</t>
+  </si>
+  <si>
     <t>Extension.extension:subunit.extension:sugar.extension:name.value[x]</t>
   </si>
   <si>
@@ -935,6 +983,9 @@
   </si>
   <si>
     <t>Extension.extension:subunit.extension:sugar.extension:residueSite.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar.residueSite</t>
   </si>
   <si>
     <t>Extension.extension:subunit.extension:sugar.extension:residueSite.value[x]</t>
@@ -2101,7 +2152,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2143,7 +2194,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2158,15 +2209,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2189,7 +2240,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -2246,7 +2297,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2258,21 +2309,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2297,14 +2348,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2373,7 +2424,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2476,7 +2527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2581,7 +2632,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2624,7 +2675,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2666,7 +2717,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2681,15 +2732,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2712,13 +2763,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2769,7 +2820,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2781,21 +2832,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2820,14 +2871,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2896,7 +2947,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2999,7 +3050,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -3104,7 +3155,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -3147,7 +3198,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3189,7 +3240,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3204,15 +3255,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3238,10 +3289,10 @@
         <v>87</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3292,7 +3343,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3304,21 +3355,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3343,14 +3394,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3419,7 +3470,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3522,7 +3573,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3627,7 +3678,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3670,7 +3721,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3712,7 +3763,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3727,15 +3778,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3758,13 +3809,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3815,7 +3866,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3827,21 +3878,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3866,14 +3917,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3942,7 +3993,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -4045,7 +4096,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4148,13 +4199,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4179,14 +4230,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4255,10 +4306,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4358,10 +4409,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4463,10 +4514,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4506,7 +4557,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4548,7 +4599,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -4563,15 +4614,15 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4594,13 +4645,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4651,7 +4702,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4663,21 +4714,21 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4702,14 +4753,14 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4778,10 +4829,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4881,10 +4932,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4986,10 +5037,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5029,7 +5080,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5071,7 +5122,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -5086,15 +5137,15 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5120,10 +5171,10 @@
         <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5174,7 +5225,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5186,21 +5237,21 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5225,14 +5276,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5301,10 +5352,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5404,10 +5455,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5509,10 +5560,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5552,7 +5603,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5594,7 +5645,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>86</v>
@@ -5609,15 +5660,15 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5640,13 +5691,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5697,7 +5748,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -5709,21 +5760,21 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5748,14 +5799,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5824,10 +5875,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5927,10 +5978,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6032,10 +6083,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6075,7 +6126,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6117,7 +6168,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
@@ -6132,15 +6183,15 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6163,13 +6214,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6220,7 +6271,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6232,21 +6283,21 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6271,14 +6322,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6347,10 +6398,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6450,10 +6501,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6555,10 +6606,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6598,7 +6649,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6640,7 +6691,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -6655,15 +6706,15 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6686,13 +6737,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6743,7 +6794,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6755,21 +6806,21 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6794,14 +6845,14 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -6870,10 +6921,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6973,10 +7024,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7078,10 +7129,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7121,7 +7172,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7163,7 +7214,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
@@ -7178,15 +7229,15 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7209,13 +7260,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7266,7 +7317,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7278,21 +7329,21 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7317,14 +7368,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7393,10 +7444,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7496,10 +7547,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7599,13 +7650,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
@@ -7630,14 +7681,14 @@
         <v>93</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -7706,10 +7757,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7809,10 +7860,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7914,10 +7965,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7957,7 +8008,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>77</v>
@@ -7999,7 +8050,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>86</v>
@@ -8014,15 +8065,15 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8048,10 +8099,10 @@
         <v>87</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8102,7 +8153,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -8114,21 +8165,21 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
@@ -8153,14 +8204,14 @@
         <v>93</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8229,10 +8280,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8332,10 +8383,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8437,10 +8488,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8480,7 +8531,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -8522,7 +8573,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>86</v>
@@ -8537,15 +8588,15 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8568,13 +8619,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8625,7 +8676,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -8637,21 +8688,21 @@
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -8676,14 +8727,14 @@
         <v>93</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -8752,10 +8803,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8855,10 +8906,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -8960,10 +9011,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9003,7 +9054,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -9045,7 +9096,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>86</v>
@@ -9060,15 +9111,15 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9094,10 +9145,10 @@
         <v>87</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9148,7 +9199,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -9160,21 +9211,21 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -9199,14 +9250,14 @@
         <v>93</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9275,10 +9326,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9378,10 +9429,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9483,10 +9534,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9526,7 +9577,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -9568,7 +9619,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>86</v>
@@ -9583,15 +9634,15 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9617,10 +9668,10 @@
         <v>87</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -9671,7 +9722,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -9683,18 +9734,18 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9734,7 +9785,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -9776,7 +9827,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>86</v>
@@ -9791,15 +9842,15 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -9822,13 +9873,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -9879,7 +9930,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -9891,21 +9942,21 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -9930,14 +9981,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10006,10 +10057,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10109,10 +10160,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10212,13 +10263,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>77</v>
@@ -10243,14 +10294,14 @@
         <v>93</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -10319,10 +10370,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10422,10 +10473,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10527,10 +10578,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10570,7 +10621,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>77</v>
@@ -10612,7 +10663,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>86</v>
@@ -10627,15 +10678,15 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10658,13 +10709,13 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -10715,7 +10766,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -10727,21 +10778,21 @@
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>77</v>
@@ -10766,14 +10817,14 @@
         <v>93</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -10842,10 +10893,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -10945,10 +10996,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11050,10 +11101,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11093,7 +11144,7 @@
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>77</v>
@@ -11135,7 +11186,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>86</v>
@@ -11150,15 +11201,15 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11184,10 +11235,10 @@
         <v>87</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -11238,7 +11289,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -11250,21 +11301,21 @@
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>77</v>
@@ -11289,14 +11340,14 @@
         <v>93</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>77</v>
@@ -11365,10 +11416,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11468,10 +11519,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -11573,10 +11624,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11616,7 +11667,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>77</v>
@@ -11658,7 +11709,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>86</v>
@@ -11673,15 +11724,15 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -11707,10 +11758,10 @@
         <v>87</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -11761,7 +11812,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -11773,18 +11824,18 @@
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -11824,7 +11875,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -11866,7 +11917,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>86</v>
@@ -11881,15 +11932,15 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -11912,13 +11963,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -11969,7 +12020,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -11981,15 +12032,15 @@
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>113</v>
@@ -12032,7 +12083,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12074,7 +12125,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>86</v>
@@ -12089,15 +12140,15 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12120,13 +12171,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12177,7 +12228,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -12189,18 +12240,18 @@
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12282,7 +12333,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>86</v>
@@ -12297,15 +12348,15 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12328,13 +12379,13 @@
         <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -12385,7 +12436,7 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -12397,10 +12448,10 @@
         <v>77</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-SubstanceNucleicAcid.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceNucleicAcid.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-SubstanceNucleicAcid.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceNucleicAcid.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
